--- a/Import/Import_task_20.xlsx
+++ b/Import/Import_task_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeskTop_Linh04\BAP_Training\Odoo-Project\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E2186-0154-46BB-A849-96E2005F2939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89085C7A-8B0B-4F68-BD4E-596FE57674F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C465278D-43D7-42C0-B348-DC437BD19C79}"/>
   </bookViews>
@@ -101,18 +101,6 @@
     <t>Tính năng import Task Nami 7</t>
   </si>
   <si>
-    <t>SPR00012</t>
-  </si>
-  <si>
-    <t>SPR00013</t>
-  </si>
-  <si>
-    <t>SPR00014</t>
-  </si>
-  <si>
-    <t>SPR00015</t>
-  </si>
-  <si>
     <t>Pia Linh</t>
   </si>
   <si>
@@ -183,6 +171,18 @@
   </si>
   <si>
     <t>tienlinhcrypto412001@gmail.com</t>
+  </si>
+  <si>
+    <t>SPR00019</t>
+  </si>
+  <si>
+    <t>SPR00020</t>
+  </si>
+  <si>
+    <t>SPR00022</t>
+  </si>
+  <si>
+    <t>SPR00023</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1027DA-1C8D-4816-A1A3-DA5E044BAB8E}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -691,23 +691,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5" t="str">
         <f ca="1">"TT"&amp;TEXT(RANDBETWEEN(1, 5), "000")</f>
-        <v>TT005</v>
+        <v>TT003</v>
       </c>
       <c r="H2" s="2">
         <v>45663</v>
@@ -716,7 +716,7 @@
         <v>45664</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -724,23 +724,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" ref="G3:G27" ca="1" si="0">"TT"&amp;TEXT(RANDBETWEEN(1, 5), "000")</f>
-        <v>TT003</v>
+        <v>TT001</v>
       </c>
       <c r="H3" s="2">
         <v>45664</v>
@@ -749,7 +749,7 @@
         <v>45665</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
@@ -757,19 +757,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -782,7 +782,7 @@
         <v>45666</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
@@ -790,23 +790,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT005</v>
+        <v>TT004</v>
       </c>
       <c r="H5" s="2">
         <v>45666</v>
@@ -815,7 +815,7 @@
         <v>45667</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
@@ -823,23 +823,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT004</v>
+        <v>TT001</v>
       </c>
       <c r="H6" s="2">
         <v>45667</v>
@@ -848,7 +848,7 @@
         <v>45668</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1">
@@ -856,23 +856,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT002</v>
+        <v>TT005</v>
       </c>
       <c r="H7" s="2">
         <v>45668</v>
@@ -881,7 +881,7 @@
         <v>45669</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -889,23 +889,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT005</v>
+        <v>TT001</v>
       </c>
       <c r="H8" s="2">
         <v>45669</v>
@@ -914,7 +914,7 @@
         <v>45670</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
@@ -922,16 +922,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -947,7 +947,7 @@
         <v>45671</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
@@ -955,23 +955,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT001</v>
+        <v>TT005</v>
       </c>
       <c r="H10" s="2">
         <v>45671</v>
@@ -980,7 +980,7 @@
         <v>45672</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1">
@@ -988,23 +988,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT005</v>
+        <v>TT002</v>
       </c>
       <c r="H11" s="2">
         <v>45672</v>
@@ -1013,7 +1013,7 @@
         <v>45673</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
@@ -1021,19 +1021,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1046,7 +1046,7 @@
         <v>45674</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
@@ -1054,23 +1054,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT005</v>
+        <v>TT003</v>
       </c>
       <c r="H13" s="2">
         <v>45674</v>
@@ -1079,7 +1079,7 @@
         <v>45675</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
@@ -1087,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>11</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT003</v>
+        <v>TT005</v>
       </c>
       <c r="H14" s="2">
         <v>45675</v>
@@ -1112,7 +1112,7 @@
         <v>45676</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -1126,17 +1126,17 @@
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT001</v>
+        <v>TT005</v>
       </c>
       <c r="H15" s="2">
         <v>45663</v>
@@ -1159,13 +1159,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1192,17 +1192,17 @@
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT004</v>
+        <v>TT001</v>
       </c>
       <c r="H17" s="2">
         <v>45665</v>
@@ -1225,17 +1225,17 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT004</v>
+        <v>TT002</v>
       </c>
       <c r="H18" s="2">
         <v>45666</v>
@@ -1258,17 +1258,17 @@
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT001</v>
+        <v>TT002</v>
       </c>
       <c r="H19" s="2">
         <v>45667</v>
@@ -1291,17 +1291,17 @@
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT002</v>
+        <v>TT005</v>
       </c>
       <c r="H20" s="2">
         <v>45668</v>
@@ -1324,10 +1324,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
@@ -1351,19 +1351,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1376,7 +1376,7 @@
         <v>45671</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
@@ -1384,23 +1384,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT005</v>
+        <v>TT002</v>
       </c>
       <c r="H23" s="2">
         <v>45671</v>
@@ -1409,7 +1409,7 @@
         <v>45672</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1">
@@ -1417,23 +1417,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT001</v>
+        <v>TT002</v>
       </c>
       <c r="H24" s="2">
         <v>45672</v>
@@ -1442,7 +1442,7 @@
         <v>45673</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
@@ -1450,23 +1450,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT001</v>
+        <v>TT004</v>
       </c>
       <c r="H25" s="2">
         <v>45673</v>
@@ -1475,7 +1475,7 @@
         <v>45674</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1">
@@ -1483,19 +1483,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1508,7 +1508,7 @@
         <v>45675</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1">
@@ -1516,23 +1516,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TT003</v>
+        <v>TT001</v>
       </c>
       <c r="H27" s="2">
         <v>45675</v>
@@ -1541,7 +1541,7 @@
         <v>45676</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
